--- a/Running projects/Daraz Office/NASTP_DARAZ_SAKA_MEP_BOQ.xlsx
+++ b/Running projects/Daraz Office/NASTP_DARAZ_SAKA_MEP_BOQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Xls\Sent BOQ\Daraz Office at NASTP Karachi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Daraz Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC50F15D-00DF-4976-B6A8-8522AFC7AD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C4EAEA-A93A-4404-89D3-31E5CEEE1D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Plumbing" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$C$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Air Conditionioning work'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">HVAC!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Plumbing!$1:$3</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -2353,6 +2354,18 @@
   </si>
   <si>
     <t xml:space="preserve">Providing  and  fixing  best  quality  hand  drayer   , complete  in  all  respect  as  per  specifications  and drawings                                                                                </t>
+  </si>
+  <si>
+    <t>Net Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add 4.5% </t>
+  </si>
+  <si>
+    <t>Gross Amount</t>
+  </si>
+  <si>
+    <t>Discount 7%</t>
   </si>
 </sst>
 </file>
@@ -2360,11 +2373,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2619,6 +2632,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3121,13 +3139,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3161,7 +3181,7 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3191,7 +3211,7 @@
     <xf numFmtId="1" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3239,7 +3259,7 @@
     <xf numFmtId="1" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3254,7 +3274,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3263,19 +3283,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3324,7 +3344,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3333,19 +3353,19 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3390,10 +3410,10 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3402,13 +3422,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3429,7 +3449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3468,7 +3488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3477,7 +3497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3489,7 +3509,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3507,7 +3527,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3525,16 +3545,16 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3546,25 +3566,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3603,12 +3623,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="166" fontId="39" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 13" xfId="3" xr:uid="{647F45FA-B97E-4A31-AE77-AA273576BC84}"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{40120D58-1D2C-4B16-B3B7-901BFDCED4F2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11" xfId="2" xr:uid="{D109BC05-AE9D-4FBD-863D-4EA157A7ED9D}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{B08CBFA6-2458-4711-9A4B-7CB811873A9F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3673,15 +3706,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>68036</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>188233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>264105</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>434195</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>73831</xdr:rowOff>
+      <xdr:rowOff>228953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3704,8 +3737,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6794500" y="555625"/>
-          <a:ext cx="4153480" cy="5772956"/>
+          <a:off x="6429375" y="712108"/>
+          <a:ext cx="4080909" cy="5709456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4059,10 +4092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3FB1D5-5CE7-4082-8419-4B7E83483819}">
-  <dimension ref="A1:AP20"/>
+  <dimension ref="A1:AP25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4194,10 +4227,7 @@
       <c r="B13" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="69">
-        <f>Plumbing!G72</f>
-        <v>5668625</v>
-      </c>
+      <c r="C13" s="69"/>
     </row>
     <row r="14" spans="1:42" s="63" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
@@ -4211,72 +4241,122 @@
       </c>
       <c r="C15" s="70">
         <f>SUM(C11:C14)</f>
-        <v>11821175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-    </row>
-    <row r="17" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-    </row>
-    <row r="18" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-    </row>
-    <row r="19" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-    </row>
-    <row r="20" spans="1:42" ht="391.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="52"/>
-      <c r="AO20" s="52"/>
-      <c r="AP20" s="52"/>
+        <v>6152550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" s="162" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="159"/>
+      <c r="B16" s="160" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="161">
+        <f>C15*7%</f>
+        <v>430678.50000000006</v>
+      </c>
+      <c r="H16" s="163"/>
+    </row>
+    <row r="17" spans="1:42" s="162" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="159"/>
+      <c r="B17" s="160" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="161">
+        <f>C15-C16</f>
+        <v>5721871.5</v>
+      </c>
+      <c r="H17" s="163"/>
+    </row>
+    <row r="18" spans="1:42" s="162" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="159"/>
+      <c r="B18" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="161">
+        <f>C17*4.5%</f>
+        <v>257484.2175</v>
+      </c>
+      <c r="H18" s="163"/>
+    </row>
+    <row r="19" spans="1:42" s="162" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="159"/>
+      <c r="B19" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="161">
+        <f>C18+C17</f>
+        <v>5979355.7175000003</v>
+      </c>
+      <c r="H19" s="163"/>
+    </row>
+    <row r="20" spans="1:42" s="162" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="159"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="161"/>
+      <c r="H20" s="163"/>
+    </row>
+    <row r="21" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+    </row>
+    <row r="22" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+    </row>
+    <row r="23" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+    </row>
+    <row r="24" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+    </row>
+    <row r="25" spans="1:42" ht="391.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="52"/>
+      <c r="AL25" s="52"/>
+      <c r="AM25" s="52"/>
+      <c r="AN25" s="52"/>
+      <c r="AO25" s="52"/>
+      <c r="AP25" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4803,7 +4883,7 @@
         <v>168750</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>1.05</v>
       </c>

--- a/Running projects/Daraz Office/NASTP_DARAZ_SAKA_MEP_BOQ.xlsx
+++ b/Running projects/Daraz Office/NASTP_DARAZ_SAKA_MEP_BOQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Daraz Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C4EAEA-A93A-4404-89D3-31E5CEEE1D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B06A86C-7C7C-4725-A489-D9FC1608770A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Plumbing" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$C$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$C$25</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Air Conditionioning work'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">HVAC!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Plumbing!$1:$3</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
   <si>
     <r>
       <rPr>
@@ -2366,6 +2366,9 @@
   </si>
   <si>
     <t>Discount 7%</t>
+  </si>
+  <si>
+    <t>Received</t>
   </si>
 </sst>
 </file>
@@ -3147,7 +3150,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3362,9 +3365,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -3587,6 +3587,17 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="166" fontId="39" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3623,17 +3634,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="166" fontId="39" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3705,16 +3705,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>68036</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>188233</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34699</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>434195</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>228953</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400857</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>70202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3737,8 +3737,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6429375" y="712108"/>
-          <a:ext cx="4080909" cy="5709456"/>
+          <a:off x="7464199" y="831170"/>
+          <a:ext cx="4088846" cy="5723970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4094,8 +4094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3FB1D5-5CE7-4082-8419-4B7E83483819}">
   <dimension ref="A1:AP25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4108,11 +4108,11 @@
     <row r="1" spans="1:42" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:42" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
@@ -4164,16 +4164,16 @@
       </c>
     </row>
     <row r="6" spans="1:42" s="53" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="147"/>
-      <c r="B6" s="147"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="58"/>
     </row>
     <row r="7" spans="1:42" s="53" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
     </row>
     <row r="8" spans="1:42" s="53" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
@@ -4244,60 +4244,61 @@
         <v>6152550</v>
       </c>
     </row>
-    <row r="16" spans="1:42" s="162" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="159"/>
-      <c r="B16" s="160" t="s">
+    <row r="16" spans="1:42" s="149" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="146"/>
+      <c r="B16" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="161">
-        <f>C15*7%</f>
-        <v>430678.50000000006</v>
-      </c>
-      <c r="H16" s="163"/>
-    </row>
-    <row r="17" spans="1:42" s="162" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159"/>
-      <c r="B17" s="160" t="s">
+      <c r="C16" s="148"/>
+      <c r="H16" s="150"/>
+    </row>
+    <row r="17" spans="1:42" s="149" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="146"/>
+      <c r="B17" s="147" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="161">
-        <f>C15-C16</f>
-        <v>5721871.5</v>
-      </c>
-      <c r="H17" s="163"/>
-    </row>
-    <row r="18" spans="1:42" s="162" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="159"/>
-      <c r="B18" s="160" t="s">
+      <c r="C17" s="148"/>
+      <c r="H17" s="150"/>
+    </row>
+    <row r="18" spans="1:42" s="149" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="146"/>
+      <c r="B18" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="161">
-        <f>C17*4.5%</f>
-        <v>257484.2175</v>
-      </c>
-      <c r="H18" s="163"/>
-    </row>
-    <row r="19" spans="1:42" s="162" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="159"/>
-      <c r="B19" s="160" t="s">
+      <c r="C18" s="148">
+        <f>C15*4.5%</f>
+        <v>276864.75</v>
+      </c>
+      <c r="H18" s="150"/>
+    </row>
+    <row r="19" spans="1:42" s="149" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="146"/>
+      <c r="B19" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="161">
-        <f>C18+C17</f>
-        <v>5979355.7175000003</v>
-      </c>
-      <c r="H19" s="163"/>
-    </row>
-    <row r="20" spans="1:42" s="162" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="159"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="161"/>
-      <c r="H20" s="163"/>
-    </row>
-    <row r="21" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="148">
+        <f>C18+C15</f>
+        <v>6429414.75</v>
+      </c>
+      <c r="H19" s="150"/>
+    </row>
+    <row r="20" spans="1:42" s="149" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="146"/>
+      <c r="B20" s="147" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="148">
+        <v>2600000</v>
+      </c>
+      <c r="H20" s="150"/>
+    </row>
+    <row r="21" spans="1:42" s="63" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="71"/>
       <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="148">
+        <f>C19-C20</f>
+        <v>3829414.75</v>
+      </c>
     </row>
     <row r="22" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="71"/>
@@ -4365,7 +4366,10 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="99" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="65" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="25" max="2" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4392,26 +4396,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
     </row>
     <row r="2" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4662,16 +4666,16 @@
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="73">
+      <c r="G18" s="72">
         <f>SUM(G5:G17)</f>
         <v>1441800</v>
       </c>
@@ -4729,26 +4733,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4883,7 +4887,7 @@
         <v>168750</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>1.05</v>
       </c>
@@ -4966,11 +4970,11 @@
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5" t="s">
         <v>48</v>
@@ -5015,26 +5019,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
@@ -5061,12 +5065,12 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="133"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="132"/>
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
     </row>
@@ -5074,27 +5078,27 @@
       <c r="A5" s="10">
         <v>1.01</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="134"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="131">
+      <c r="C6" s="130">
         <v>4</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="135">
+      <c r="E6" s="134">
         <v>108000</v>
       </c>
       <c r="F6" s="11">
@@ -5109,27 +5113,27 @@
       <c r="A7" s="10">
         <v>1.02</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="134"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="133"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="131">
+      <c r="C8" s="130">
         <v>4</v>
       </c>
-      <c r="D8" s="138" t="s">
+      <c r="D8" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="135">
+      <c r="E8" s="134">
         <v>54500</v>
       </c>
       <c r="F8" s="11">
@@ -5144,16 +5148,16 @@
       <c r="A9" s="10">
         <v>1.03</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="131">
+      <c r="C9" s="130">
         <v>4</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="135">
+      <c r="E9" s="134">
         <v>12500</v>
       </c>
       <c r="F9" s="11">
@@ -5168,16 +5172,16 @@
       <c r="A10" s="48">
         <v>1.04</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="132">
+      <c r="C10" s="131">
         <v>4</v>
       </c>
-      <c r="D10" s="139" t="s">
+      <c r="D10" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="136">
+      <c r="E10" s="135">
         <v>41500</v>
       </c>
       <c r="F10" s="49">
@@ -5189,984 +5193,984 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87">
+      <c r="A11" s="86">
         <v>1.05</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="90">
+      <c r="C12" s="89">
         <v>5</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="91">
         <v>90000</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="88">
         <v>6000</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="88">
         <f t="shared" ref="G12:G23" si="0">SUM(F12+E12)*C12</f>
         <v>480000</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87">
+      <c r="A13" s="86">
         <v>1.06</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="90">
+      <c r="C13" s="89">
         <v>1</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="91">
         <v>115000</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="88">
         <v>60000</v>
       </c>
-      <c r="G13" s="89">
+      <c r="G13" s="88">
         <f t="shared" si="0"/>
         <v>175000</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
+      <c r="A14" s="83">
         <v>1.07</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="78">
         <v>7</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="94">
+      <c r="E14" s="93">
         <v>132000</v>
       </c>
-      <c r="F14" s="94">
+      <c r="F14" s="93">
         <v>10000</v>
       </c>
-      <c r="G14" s="93">
+      <c r="G14" s="92">
         <f t="shared" si="0"/>
         <v>994000</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="240" x14ac:dyDescent="0.25">
-      <c r="A15" s="83">
+      <c r="A15" s="82">
         <v>1.08</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="80">
+      <c r="C15" s="79">
         <v>5</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="93">
         <v>51500</v>
       </c>
-      <c r="F15" s="94">
+      <c r="F15" s="93">
         <v>6000</v>
       </c>
-      <c r="G15" s="93">
+      <c r="G15" s="92">
         <f t="shared" si="0"/>
         <v>287500</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="83">
+      <c r="A16" s="82">
         <v>1.0900000000000001</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="79">
         <v>7</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="93">
         <v>14500</v>
       </c>
-      <c r="F16" s="94">
+      <c r="F16" s="93">
         <v>1000</v>
       </c>
-      <c r="G16" s="94">
+      <c r="G16" s="93">
         <f t="shared" si="0"/>
         <v>108500</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="83">
+      <c r="A17" s="82">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="80">
+      <c r="C17" s="79">
         <v>5</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="93">
         <v>45000</v>
       </c>
-      <c r="F17" s="94">
+      <c r="F17" s="93">
         <v>4000</v>
       </c>
-      <c r="G17" s="93">
+      <c r="G17" s="92">
         <f t="shared" si="0"/>
         <v>245000</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="83">
+      <c r="A18" s="82">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="80">
+      <c r="C18" s="79">
         <v>5</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="94">
+      <c r="E18" s="93">
         <v>12500</v>
       </c>
-      <c r="F18" s="94">
+      <c r="F18" s="93">
         <v>1000</v>
       </c>
-      <c r="G18" s="93">
+      <c r="G18" s="92">
         <f t="shared" si="0"/>
         <v>67500</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
+      <c r="A19" s="82">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="79">
         <v>7</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="94">
+      <c r="E19" s="93">
         <v>11500</v>
       </c>
-      <c r="F19" s="94">
+      <c r="F19" s="93">
         <v>1000</v>
       </c>
-      <c r="G19" s="93">
+      <c r="G19" s="92">
         <f t="shared" si="0"/>
         <v>87500</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="83">
+      <c r="A20" s="82">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="79">
         <v>5</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="93">
         <v>23000</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="93">
         <v>1000</v>
       </c>
-      <c r="G20" s="93">
+      <c r="G20" s="92">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83">
+      <c r="A21" s="82">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="79">
         <v>80</v>
       </c>
-      <c r="D21" s="79" t="s">
+      <c r="D21" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="94">
+      <c r="E21" s="93">
         <v>2000</v>
       </c>
-      <c r="F21" s="94">
+      <c r="F21" s="93">
         <v>200</v>
       </c>
-      <c r="G21" s="93">
+      <c r="G21" s="92">
         <f t="shared" si="0"/>
         <v>176000</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83">
+      <c r="A22" s="82">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="79">
         <v>1</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="94">
+      <c r="E22" s="93">
         <v>65000</v>
       </c>
-      <c r="F22" s="94">
+      <c r="F22" s="93">
         <v>35000</v>
       </c>
-      <c r="G22" s="93">
+      <c r="G22" s="92">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83">
+      <c r="A23" s="82">
         <v>1.1599999999999999</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="79">
         <v>1</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="94">
+      <c r="E23" s="93">
         <v>27500</v>
       </c>
-      <c r="F23" s="94">
+      <c r="F23" s="93">
         <v>3000</v>
       </c>
-      <c r="G23" s="93">
+      <c r="G23" s="92">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="96"/>
-      <c r="B24" s="97" t="s">
+      <c r="A24" s="95"/>
+      <c r="B24" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
     </row>
     <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="101">
+      <c r="A25" s="100">
         <v>2.1</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="75" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="102"/>
+      <c r="G25" s="101"/>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="103"/>
-      <c r="B26" s="76" t="s">
+      <c r="A26" s="102"/>
+      <c r="B26" s="75" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="102"/>
+      <c r="G26" s="101"/>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="103"/>
-      <c r="B27" s="76" t="s">
+      <c r="A27" s="102"/>
+      <c r="B27" s="75" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="102"/>
+      <c r="G27" s="101"/>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="103"/>
-      <c r="B28" s="76" t="s">
+      <c r="A28" s="102"/>
+      <c r="B28" s="75" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="102"/>
+      <c r="G28" s="101"/>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="103"/>
-      <c r="B29" s="76" t="s">
+      <c r="A29" s="102"/>
+      <c r="B29" s="75" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="102"/>
+      <c r="G29" s="101"/>
     </row>
     <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="103"/>
-      <c r="B30" s="76" t="s">
+      <c r="A30" s="102"/>
+      <c r="B30" s="75" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="102"/>
+      <c r="G30" s="101"/>
     </row>
     <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="103"/>
-      <c r="B31" s="76" t="s">
+      <c r="A31" s="102"/>
+      <c r="B31" s="75" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="102"/>
+      <c r="G31" s="101"/>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="103"/>
-      <c r="B32" s="76" t="s">
+      <c r="A32" s="102"/>
+      <c r="B32" s="75" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="102"/>
+      <c r="G32" s="101"/>
     </row>
     <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="103"/>
-      <c r="B33" s="76" t="s">
+      <c r="A33" s="102"/>
+      <c r="B33" s="75" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="102"/>
+      <c r="G33" s="101"/>
     </row>
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="103"/>
-      <c r="B34" s="76" t="s">
+      <c r="A34" s="102"/>
+      <c r="B34" s="75" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="102"/>
+      <c r="G34" s="101"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="104"/>
-      <c r="B35" s="105" t="s">
+      <c r="A35" s="103"/>
+      <c r="B35" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="108"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="107"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="109"/>
-      <c r="B36" s="110" t="s">
+      <c r="A36" s="108"/>
+      <c r="B36" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="111">
+      <c r="C36" s="110">
         <v>210</v>
       </c>
-      <c r="D36" s="112" t="s">
+      <c r="D36" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="113">
+      <c r="E36" s="112">
         <v>340</v>
       </c>
-      <c r="F36" s="113">
+      <c r="F36" s="112">
         <v>100</v>
       </c>
-      <c r="G36" s="114">
+      <c r="G36" s="113">
         <f>SUM(F36+E36)*C36</f>
         <v>92400</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="109"/>
-      <c r="B37" s="110" t="s">
+      <c r="A37" s="108"/>
+      <c r="B37" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="111">
+      <c r="C37" s="110">
         <v>180</v>
       </c>
-      <c r="D37" s="112" t="s">
+      <c r="D37" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="113">
+      <c r="E37" s="112">
         <v>570</v>
       </c>
-      <c r="F37" s="113">
+      <c r="F37" s="112">
         <v>100</v>
       </c>
-      <c r="G37" s="114">
+      <c r="G37" s="113">
         <f>SUM(F37+E37)*C37</f>
         <v>120600</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="109"/>
-      <c r="B38" s="110" t="s">
+      <c r="A38" s="108"/>
+      <c r="B38" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="111">
+      <c r="C38" s="110">
         <v>100</v>
       </c>
-      <c r="D38" s="112" t="s">
+      <c r="D38" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="113">
+      <c r="E38" s="112">
         <v>970</v>
       </c>
-      <c r="F38" s="113">
+      <c r="F38" s="112">
         <v>125</v>
       </c>
-      <c r="G38" s="114">
+      <c r="G38" s="113">
         <f>SUM(F38+E38)*C38</f>
         <v>109500</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="109"/>
-      <c r="B39" s="110" t="s">
+      <c r="A39" s="108"/>
+      <c r="B39" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="116"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="115"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="109"/>
-      <c r="B40" s="110" t="s">
+      <c r="A40" s="108"/>
+      <c r="B40" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="111">
+      <c r="C40" s="110">
         <v>100</v>
       </c>
-      <c r="D40" s="112" t="s">
+      <c r="D40" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="113">
+      <c r="E40" s="112">
         <v>1300</v>
       </c>
-      <c r="F40" s="113">
+      <c r="F40" s="112">
         <v>150</v>
       </c>
-      <c r="G40" s="114">
+      <c r="G40" s="113">
         <f>SUM(F40+E40)*C40</f>
         <v>145000</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="117">
+      <c r="A41" s="116">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="100"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="99"/>
     </row>
     <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="103"/>
-      <c r="B42" s="76" t="s">
+      <c r="A42" s="102"/>
+      <c r="B42" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="102"/>
+      <c r="G42" s="101"/>
     </row>
     <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="103"/>
-      <c r="B43" s="76" t="s">
+      <c r="A43" s="102"/>
+      <c r="B43" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="102"/>
+      <c r="G43" s="101"/>
     </row>
     <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="103"/>
-      <c r="B44" s="76" t="s">
+      <c r="A44" s="102"/>
+      <c r="B44" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="102"/>
+      <c r="G44" s="101"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="103"/>
-      <c r="B45" s="76" t="s">
+      <c r="A45" s="102"/>
+      <c r="B45" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="102"/>
+      <c r="G45" s="101"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="104"/>
-      <c r="B46" s="105" t="s">
+      <c r="A46" s="103"/>
+      <c r="B46" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="119">
+      <c r="C46" s="118">
         <v>6</v>
       </c>
-      <c r="D46" s="120" t="s">
+      <c r="D46" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="143">
+      <c r="E46" s="142">
         <v>11500</v>
       </c>
-      <c r="F46" s="143">
+      <c r="F46" s="142">
         <v>1000</v>
       </c>
-      <c r="G46" s="121">
+      <c r="G46" s="120">
         <f>SUM(F46+E46)*C46</f>
         <v>75000</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="122"/>
-      <c r="B47" s="97" t="s">
+      <c r="A47" s="121"/>
+      <c r="B47" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="100"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="99"/>
     </row>
     <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="101">
+      <c r="A48" s="100">
         <v>3.1</v>
       </c>
-      <c r="B48" s="76" t="s">
+      <c r="B48" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="102"/>
+      <c r="G48" s="101"/>
     </row>
     <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="103"/>
-      <c r="B49" s="76" t="s">
+      <c r="A49" s="102"/>
+      <c r="B49" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="102"/>
+      <c r="G49" s="101"/>
     </row>
     <row r="50" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="103"/>
-      <c r="B50" s="76" t="s">
+      <c r="A50" s="102"/>
+      <c r="B50" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="102"/>
+      <c r="G50" s="101"/>
     </row>
     <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="103"/>
-      <c r="B51" s="76" t="s">
+      <c r="A51" s="102"/>
+      <c r="B51" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="102"/>
+      <c r="G51" s="101"/>
     </row>
     <row r="52" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="103"/>
-      <c r="B52" s="76" t="s">
+      <c r="A52" s="102"/>
+      <c r="B52" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="102"/>
+      <c r="G52" s="101"/>
     </row>
     <row r="53" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="103"/>
-      <c r="B53" s="76" t="s">
+      <c r="A53" s="102"/>
+      <c r="B53" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="102"/>
+      <c r="G53" s="101"/>
     </row>
     <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="103"/>
-      <c r="B54" s="76" t="s">
+      <c r="A54" s="102"/>
+      <c r="B54" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="102"/>
+      <c r="G54" s="101"/>
     </row>
     <row r="55" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="103"/>
-      <c r="B55" s="76" t="s">
+      <c r="A55" s="102"/>
+      <c r="B55" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="102"/>
+      <c r="G55" s="101"/>
     </row>
     <row r="56" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="103"/>
-      <c r="B56" s="76" t="s">
+      <c r="A56" s="102"/>
+      <c r="B56" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="102"/>
+      <c r="G56" s="101"/>
     </row>
     <row r="57" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="103"/>
-      <c r="B57" s="76" t="s">
+      <c r="A57" s="102"/>
+      <c r="B57" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="102"/>
+      <c r="G57" s="101"/>
     </row>
     <row r="58" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="103"/>
-      <c r="B58" s="76" t="s">
+      <c r="A58" s="102"/>
+      <c r="B58" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="102"/>
+      <c r="G58" s="101"/>
     </row>
     <row r="59" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="103"/>
-      <c r="B59" s="76" t="s">
+      <c r="A59" s="102"/>
+      <c r="B59" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="102"/>
+      <c r="G59" s="101"/>
     </row>
     <row r="60" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="103"/>
-      <c r="B60" s="76" t="s">
+      <c r="A60" s="102"/>
+      <c r="B60" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="102"/>
+      <c r="G60" s="101"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="104"/>
-      <c r="B61" s="105" t="s">
+      <c r="A61" s="103"/>
+      <c r="B61" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="123"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="108"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="107"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="109"/>
-      <c r="B62" s="110" t="s">
+      <c r="A62" s="108"/>
+      <c r="B62" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="111">
+      <c r="C62" s="110">
         <v>60</v>
       </c>
-      <c r="D62" s="111" t="s">
+      <c r="D62" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="E62" s="141">
+      <c r="E62" s="140">
         <v>400</v>
       </c>
-      <c r="F62" s="141">
+      <c r="F62" s="140">
         <v>100</v>
       </c>
-      <c r="G62" s="114">
+      <c r="G62" s="113">
         <f>SUM(F62+E62)*C62</f>
         <v>30000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="109"/>
-      <c r="B63" s="110" t="s">
+      <c r="A63" s="108"/>
+      <c r="B63" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="111">
+      <c r="C63" s="110">
         <v>185</v>
       </c>
-      <c r="D63" s="111" t="s">
+      <c r="D63" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="E63" s="141">
+      <c r="E63" s="140">
         <v>850</v>
       </c>
-      <c r="F63" s="141">
+      <c r="F63" s="140">
         <v>125</v>
       </c>
-      <c r="G63" s="114">
+      <c r="G63" s="113">
         <f>SUM(F63+E63)*C63</f>
         <v>180375</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="109"/>
-      <c r="B64" s="110" t="s">
+      <c r="A64" s="108"/>
+      <c r="B64" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="111">
+      <c r="C64" s="110">
         <v>325</v>
       </c>
-      <c r="D64" s="111" t="s">
+      <c r="D64" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="141">
+      <c r="E64" s="140">
         <v>1100</v>
       </c>
-      <c r="F64" s="141">
+      <c r="F64" s="140">
         <v>150</v>
       </c>
-      <c r="G64" s="114">
+      <c r="G64" s="113">
         <f>SUM(F64+E64)*C64</f>
         <v>406250</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="117">
+      <c r="A65" s="116">
         <v>3.2</v>
       </c>
-      <c r="B65" s="97" t="s">
+      <c r="B65" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
-      <c r="G65" s="145"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="143"/>
+      <c r="G65" s="144"/>
     </row>
     <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="104"/>
-      <c r="B66" s="105"/>
-      <c r="C66" s="119">
+      <c r="A66" s="103"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="118">
         <v>19</v>
       </c>
-      <c r="D66" s="120" t="s">
+      <c r="D66" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="E66" s="143">
+      <c r="E66" s="142">
         <v>5000</v>
       </c>
-      <c r="F66" s="143">
+      <c r="F66" s="142">
         <v>1000</v>
       </c>
-      <c r="G66" s="121">
+      <c r="G66" s="120">
         <f>SUM(F66+E66)*C66</f>
         <v>114000</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="117">
+      <c r="A67" s="116">
         <v>3.3</v>
       </c>
-      <c r="B67" s="97" t="s">
+      <c r="B67" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="118"/>
-      <c r="D67" s="118"/>
-      <c r="E67" s="144"/>
-      <c r="F67" s="144"/>
-      <c r="G67" s="145"/>
-    </row>
-    <row r="68" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="124"/>
-      <c r="B68" s="125" t="s">
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="143"/>
+      <c r="G67" s="144"/>
+    </row>
+    <row r="68" spans="1:7" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="123"/>
+      <c r="B68" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="126">
+      <c r="C68" s="125">
         <v>2</v>
       </c>
-      <c r="D68" s="126" t="s">
+      <c r="D68" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="E68" s="140">
+      <c r="E68" s="139">
         <v>4000</v>
       </c>
-      <c r="F68" s="140">
+      <c r="F68" s="139">
         <v>1000</v>
       </c>
-      <c r="G68" s="114">
+      <c r="G68" s="113">
         <f>SUM(F68+E68)*C68</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="124"/>
-      <c r="B69" s="125" t="s">
+    <row r="69" spans="1:7" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="123"/>
+      <c r="B69" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="126">
+      <c r="C69" s="125">
         <v>4</v>
       </c>
-      <c r="D69" s="112" t="s">
+      <c r="D69" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="E69" s="140">
+      <c r="E69" s="139">
         <v>5000</v>
       </c>
-      <c r="F69" s="140">
+      <c r="F69" s="139">
         <v>1000</v>
       </c>
-      <c r="G69" s="114">
+      <c r="G69" s="113">
         <f>SUM(F69+E69)*C69</f>
         <v>24000</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="127">
+      <c r="A70" s="126">
         <v>3.2</v>
       </c>
-      <c r="B70" s="110" t="s">
+      <c r="B70" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="115"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="141"/>
-      <c r="F70" s="141"/>
-      <c r="G70" s="146"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="140"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="145"/>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="109"/>
-      <c r="B71" s="110"/>
-      <c r="C71" s="128">
+      <c r="A71" s="108"/>
+      <c r="B71" s="109"/>
+      <c r="C71" s="127">
         <v>4</v>
       </c>
-      <c r="D71" s="111" t="s">
+      <c r="D71" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="E71" s="141">
+      <c r="E71" s="140">
         <v>135000</v>
       </c>
-      <c r="F71" s="141">
+      <c r="F71" s="140">
         <v>5000</v>
       </c>
-      <c r="G71" s="114">
+      <c r="G71" s="113">
         <f>SUM(F71+E71)*C71</f>
         <v>560000</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="86"/>
-      <c r="B72" s="157" t="s">
+      <c r="A72" s="85"/>
+      <c r="B72" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="157"/>
+      <c r="C72" s="161"/>
       <c r="D72" s="8"/>
       <c r="E72" s="46" t="s">
         <v>46</v>
       </c>
       <c r="F72" s="47"/>
-      <c r="G72" s="142">
+      <c r="G72" s="141">
         <f>SUM(G5:G71)</f>
         <v>5668625</v>
       </c>
